--- a/Методы оптимизации/LAB10.xlsx
+++ b/Методы оптимизации/LAB10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studying2.2\Методы оптимизации\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03BF86B-98F5-4508-954C-D20AA41E2904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18D4C51-0E0D-4399-9286-D8EBD95C92D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{415F18DB-E603-A147-99D6-32405BBB51A1}"/>
   </bookViews>
@@ -58,10 +58,21 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -490,19 +501,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -921,10 +930,10 @@
       <c r="C16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="5">
         <v>17</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="5">
         <v>17</v>
       </c>
     </row>
@@ -955,10 +964,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7">
         <v>0</v>
       </c>
       <c r="F21" s="7" t="s">
@@ -972,10 +981,10 @@
       <c r="C22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="9">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
         <v>0</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -987,10 +996,10 @@
         <v>32</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="9">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
         <v>0</v>
       </c>
       <c r="F23" s="7" t="s">
@@ -1002,10 +1011,10 @@
         <v>33</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
         <v>0</v>
       </c>
       <c r="F24" s="7" t="s">
@@ -1017,10 +1026,10 @@
         <v>34</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
         <v>1</v>
       </c>
       <c r="F25" s="7" t="s">
@@ -1032,10 +1041,10 @@
         <v>35</v>
       </c>
       <c r="C26" s="7"/>
-      <c r="D26" s="9">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
         <v>0</v>
       </c>
       <c r="F26" s="7" t="s">
@@ -1049,10 +1058,10 @@
       <c r="C27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="9">
-        <v>0</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
         <v>0</v>
       </c>
       <c r="F27" s="7" t="s">
@@ -1064,10 +1073,10 @@
         <v>37</v>
       </c>
       <c r="C28" s="7"/>
-      <c r="D28" s="9">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
         <v>0</v>
       </c>
       <c r="F28" s="7" t="s">
@@ -1079,10 +1088,10 @@
         <v>38</v>
       </c>
       <c r="C29" s="7"/>
-      <c r="D29" s="9">
-        <v>1</v>
-      </c>
-      <c r="E29" s="9">
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
         <v>1</v>
       </c>
       <c r="F29" s="7" t="s">
@@ -1094,10 +1103,10 @@
         <v>39</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="D30" s="9">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9">
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
         <v>0</v>
       </c>
       <c r="F30" s="7" t="s">
@@ -1109,10 +1118,10 @@
         <v>40</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="9">
-        <v>0</v>
-      </c>
-      <c r="E31" s="9">
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
         <v>0</v>
       </c>
       <c r="F31" s="7" t="s">
@@ -1126,10 +1135,10 @@
       <c r="C32" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="9">
-        <v>0</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
         <v>0</v>
       </c>
       <c r="F32" s="7" t="s">
@@ -1141,10 +1150,10 @@
         <v>42</v>
       </c>
       <c r="C33" s="7"/>
-      <c r="D33" s="9">
-        <v>1</v>
-      </c>
-      <c r="E33" s="9">
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
         <v>1</v>
       </c>
       <c r="F33" s="7" t="s">
@@ -1156,10 +1165,10 @@
         <v>43</v>
       </c>
       <c r="C34" s="7"/>
-      <c r="D34" s="9">
-        <v>0</v>
-      </c>
-      <c r="E34" s="9">
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
         <v>0</v>
       </c>
       <c r="F34" s="7" t="s">
@@ -1171,10 +1180,10 @@
         <v>44</v>
       </c>
       <c r="C35" s="7"/>
-      <c r="D35" s="9">
-        <v>0</v>
-      </c>
-      <c r="E35" s="9">
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
         <v>0</v>
       </c>
       <c r="F35" s="7" t="s">
@@ -1186,10 +1195,10 @@
         <v>45</v>
       </c>
       <c r="C36" s="7"/>
-      <c r="D36" s="9">
-        <v>0</v>
-      </c>
-      <c r="E36" s="9">
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
         <v>0</v>
       </c>
       <c r="F36" s="7" t="s">
@@ -1203,10 +1212,10 @@
       <c r="C37" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="9">
-        <v>1</v>
-      </c>
-      <c r="E37" s="9">
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7">
         <v>1</v>
       </c>
       <c r="F37" s="7" t="s">
@@ -1218,10 +1227,10 @@
         <v>47</v>
       </c>
       <c r="C38" s="7"/>
-      <c r="D38" s="9">
-        <v>0</v>
-      </c>
-      <c r="E38" s="9">
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7">
         <v>0</v>
       </c>
       <c r="F38" s="7" t="s">
@@ -1233,10 +1242,10 @@
         <v>48</v>
       </c>
       <c r="C39" s="7"/>
-      <c r="D39" s="9">
-        <v>0</v>
-      </c>
-      <c r="E39" s="9">
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7">
         <v>0</v>
       </c>
       <c r="F39" s="7" t="s">
@@ -1248,10 +1257,10 @@
         <v>49</v>
       </c>
       <c r="C40" s="7"/>
-      <c r="D40" s="9">
-        <v>0</v>
-      </c>
-      <c r="E40" s="9">
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7">
         <v>0</v>
       </c>
       <c r="F40" s="7" t="s">
@@ -1263,10 +1272,10 @@
         <v>50</v>
       </c>
       <c r="C41" s="7"/>
-      <c r="D41" s="9">
-        <v>1</v>
-      </c>
-      <c r="E41" s="9">
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7">
         <v>1</v>
       </c>
       <c r="F41" s="7" t="s">
@@ -1280,10 +1289,10 @@
       <c r="C42" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="9">
-        <v>0</v>
-      </c>
-      <c r="E42" s="9">
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7">
         <v>0</v>
       </c>
       <c r="F42" s="7" t="s">
@@ -1295,10 +1304,10 @@
         <v>52</v>
       </c>
       <c r="C43" s="7"/>
-      <c r="D43" s="9">
-        <v>0</v>
-      </c>
-      <c r="E43" s="9">
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7">
         <v>0</v>
       </c>
       <c r="F43" s="7" t="s">
@@ -1310,10 +1319,10 @@
         <v>53</v>
       </c>
       <c r="C44" s="7"/>
-      <c r="D44" s="9">
-        <v>0</v>
-      </c>
-      <c r="E44" s="9">
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="7">
         <v>0</v>
       </c>
       <c r="F44" s="7" t="s">
@@ -1325,10 +1334,10 @@
         <v>54</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="8">
-        <v>0</v>
-      </c>
-      <c r="E45" s="8">
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
         <v>0</v>
       </c>
       <c r="F45" s="5" t="s">
@@ -1367,7 +1376,7 @@
       <c r="C50" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="7">
         <v>1</v>
       </c>
       <c r="E50" s="7" t="s">
@@ -1387,7 +1396,7 @@
       <c r="C51" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="7">
         <v>1</v>
       </c>
       <c r="E51" s="7" t="s">
@@ -1407,7 +1416,7 @@
       <c r="C52" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="7">
         <v>1</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -1427,7 +1436,7 @@
       <c r="C53" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="7">
         <v>1</v>
       </c>
       <c r="E53" s="7" t="s">
@@ -1447,7 +1456,7 @@
       <c r="C54" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="7">
         <v>1</v>
       </c>
       <c r="E54" s="7" t="s">
@@ -1467,7 +1476,7 @@
       <c r="C55" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="7">
         <v>1</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -1487,7 +1496,7 @@
       <c r="C56" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="7">
         <v>1</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -1507,7 +1516,7 @@
       <c r="C57" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="7">
         <v>1</v>
       </c>
       <c r="E57" s="7" t="s">
@@ -1527,7 +1536,7 @@
       <c r="C58" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="7">
         <v>1</v>
       </c>
       <c r="E58" s="7" t="s">
@@ -1547,7 +1556,7 @@
       <c r="C59" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="7">
         <v>1</v>
       </c>
       <c r="E59" s="7" t="s">
@@ -1565,7 +1574,7 @@
         <v>30</v>
       </c>
       <c r="C60" s="7"/>
-      <c r="D60" s="9">
+      <c r="D60" s="7">
         <v>0</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -1574,7 +1583,7 @@
       <c r="F60" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1585,7 +1594,7 @@
       <c r="C61" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="7">
         <v>0</v>
       </c>
       <c r="E61" s="7" t="s">
@@ -1594,7 +1603,7 @@
       <c r="F61" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1603,7 +1612,7 @@
         <v>32</v>
       </c>
       <c r="C62" s="7"/>
-      <c r="D62" s="9">
+      <c r="D62" s="7">
         <v>0</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -1612,7 +1621,7 @@
       <c r="F62" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1621,7 +1630,7 @@
         <v>33</v>
       </c>
       <c r="C63" s="7"/>
-      <c r="D63" s="9">
+      <c r="D63" s="7">
         <v>0</v>
       </c>
       <c r="E63" s="7" t="s">
@@ -1630,7 +1639,7 @@
       <c r="F63" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1639,7 +1648,7 @@
         <v>34</v>
       </c>
       <c r="C64" s="7"/>
-      <c r="D64" s="9">
+      <c r="D64" s="7">
         <v>1</v>
       </c>
       <c r="E64" s="7" t="s">
@@ -1648,7 +1657,7 @@
       <c r="F64" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1657,7 +1666,7 @@
         <v>35</v>
       </c>
       <c r="C65" s="7"/>
-      <c r="D65" s="9">
+      <c r="D65" s="7">
         <v>0</v>
       </c>
       <c r="E65" s="7" t="s">
@@ -1666,7 +1675,7 @@
       <c r="F65" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G65" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1677,7 +1686,7 @@
       <c r="C66" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="7">
         <v>0</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -1686,7 +1695,7 @@
       <c r="F66" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1695,7 +1704,7 @@
         <v>37</v>
       </c>
       <c r="C67" s="7"/>
-      <c r="D67" s="9">
+      <c r="D67" s="7">
         <v>0</v>
       </c>
       <c r="E67" s="7" t="s">
@@ -1704,7 +1713,7 @@
       <c r="F67" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1713,7 +1722,7 @@
         <v>38</v>
       </c>
       <c r="C68" s="7"/>
-      <c r="D68" s="9">
+      <c r="D68" s="7">
         <v>1</v>
       </c>
       <c r="E68" s="7" t="s">
@@ -1722,7 +1731,7 @@
       <c r="F68" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1731,7 +1740,7 @@
         <v>39</v>
       </c>
       <c r="C69" s="7"/>
-      <c r="D69" s="9">
+      <c r="D69" s="7">
         <v>0</v>
       </c>
       <c r="E69" s="7" t="s">
@@ -1740,7 +1749,7 @@
       <c r="F69" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G69" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1749,7 +1758,7 @@
         <v>40</v>
       </c>
       <c r="C70" s="7"/>
-      <c r="D70" s="9">
+      <c r="D70" s="7">
         <v>0</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -1758,7 +1767,7 @@
       <c r="F70" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1769,7 +1778,7 @@
       <c r="C71" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="7">
         <v>0</v>
       </c>
       <c r="E71" s="7" t="s">
@@ -1778,7 +1787,7 @@
       <c r="F71" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G71" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1787,7 +1796,7 @@
         <v>42</v>
       </c>
       <c r="C72" s="7"/>
-      <c r="D72" s="9">
+      <c r="D72" s="7">
         <v>1</v>
       </c>
       <c r="E72" s="7" t="s">
@@ -1796,7 +1805,7 @@
       <c r="F72" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1805,7 +1814,7 @@
         <v>43</v>
       </c>
       <c r="C73" s="7"/>
-      <c r="D73" s="9">
+      <c r="D73" s="7">
         <v>0</v>
       </c>
       <c r="E73" s="7" t="s">
@@ -1814,7 +1823,7 @@
       <c r="F73" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G73" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1823,7 +1832,7 @@
         <v>44</v>
       </c>
       <c r="C74" s="7"/>
-      <c r="D74" s="9">
+      <c r="D74" s="7">
         <v>0</v>
       </c>
       <c r="E74" s="7" t="s">
@@ -1832,7 +1841,7 @@
       <c r="F74" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1841,7 +1850,7 @@
         <v>45</v>
       </c>
       <c r="C75" s="7"/>
-      <c r="D75" s="9">
+      <c r="D75" s="7">
         <v>0</v>
       </c>
       <c r="E75" s="7" t="s">
@@ -1850,7 +1859,7 @@
       <c r="F75" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1861,7 +1870,7 @@
       <c r="C76" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="7">
         <v>1</v>
       </c>
       <c r="E76" s="7" t="s">
@@ -1870,7 +1879,7 @@
       <c r="F76" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1879,7 +1888,7 @@
         <v>47</v>
       </c>
       <c r="C77" s="7"/>
-      <c r="D77" s="9">
+      <c r="D77" s="7">
         <v>0</v>
       </c>
       <c r="E77" s="7" t="s">
@@ -1888,7 +1897,7 @@
       <c r="F77" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1897,7 +1906,7 @@
         <v>48</v>
       </c>
       <c r="C78" s="7"/>
-      <c r="D78" s="9">
+      <c r="D78" s="7">
         <v>0</v>
       </c>
       <c r="E78" s="7" t="s">
@@ -1906,7 +1915,7 @@
       <c r="F78" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G78" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1915,7 +1924,7 @@
         <v>49</v>
       </c>
       <c r="C79" s="7"/>
-      <c r="D79" s="9">
+      <c r="D79" s="7">
         <v>0</v>
       </c>
       <c r="E79" s="7" t="s">
@@ -1924,7 +1933,7 @@
       <c r="F79" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1933,7 +1942,7 @@
         <v>50</v>
       </c>
       <c r="C80" s="7"/>
-      <c r="D80" s="9">
+      <c r="D80" s="7">
         <v>1</v>
       </c>
       <c r="E80" s="7" t="s">
@@ -1942,7 +1951,7 @@
       <c r="F80" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G80" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1953,7 +1962,7 @@
       <c r="C81" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="7">
         <v>0</v>
       </c>
       <c r="E81" s="7" t="s">
@@ -1962,7 +1971,7 @@
       <c r="F81" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G81" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1971,7 +1980,7 @@
         <v>52</v>
       </c>
       <c r="C82" s="7"/>
-      <c r="D82" s="9">
+      <c r="D82" s="7">
         <v>0</v>
       </c>
       <c r="E82" s="7" t="s">
@@ -1980,7 +1989,7 @@
       <c r="F82" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G82" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1989,7 +1998,7 @@
         <v>53</v>
       </c>
       <c r="C83" s="7"/>
-      <c r="D83" s="9">
+      <c r="D83" s="7">
         <v>0</v>
       </c>
       <c r="E83" s="7" t="s">
@@ -1998,7 +2007,7 @@
       <c r="F83" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G83" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2007,7 +2016,7 @@
         <v>54</v>
       </c>
       <c r="C84" s="7"/>
-      <c r="D84" s="9">
+      <c r="D84" s="7">
         <v>0</v>
       </c>
       <c r="E84" s="7" t="s">
@@ -2016,7 +2025,7 @@
       <c r="F84" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G84" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2040,7 +2049,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:F14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
